--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.215099736670844</v>
+        <v>63.215099736609872</v>
       </c>
       <c r="C2">
-        <v>67.203567915186483</v>
+        <v>67.203567915227353</v>
       </c>
       <c r="D2">
-        <v>52.000728589688386</v>
+        <v>52.000728589638427</v>
       </c>
       <c r="E2">
-        <v>68.48804964016486</v>
+        <v>68.488049639975202</v>
       </c>
       <c r="F2">
-        <v>42.865804026347618</v>
+        <v>42.865804025703618</v>
       </c>
       <c r="G2">
-        <v>56.151478433456901</v>
+        <v>56.151478433544767</v>
       </c>
       <c r="H2">
-        <v>48.31545892228263</v>
+        <v>48.315458922335736</v>
       </c>
       <c r="I2">
-        <v>60.841778279161247</v>
+        <v>60.841778278904748</v>
       </c>
       <c r="J2">
-        <v>66.654587012706259</v>
+        <v>66.654587014121361</v>
       </c>
       <c r="K2">
-        <v>54.175691502904904</v>
+        <v>54.175691502932466</v>
       </c>
       <c r="L2">
-        <v>55.027247848352616</v>
+        <v>55.027247848521817</v>
       </c>
       <c r="M2">
-        <v>65.907559826726299</v>
+        <v>65.907559826486761</v>
       </c>
       <c r="N2">
-        <v>62.742833143285196</v>
+        <v>62.742833143034716</v>
       </c>
       <c r="O2">
-        <v>45.976771617904149</v>
+        <v>45.976771617899388</v>
       </c>
       <c r="P2">
-        <v>61.259560156414032</v>
+        <v>61.259560156331794</v>
       </c>
       <c r="Q2">
-        <v>61.309997011393307</v>
+        <v>61.309997011440316</v>
       </c>
       <c r="R2">
-        <v>53.906554567682818</v>
+        <v>53.906554568370282</v>
       </c>
       <c r="S2">
-        <v>86.118115264489646</v>
+        <v>86.118115264238199</v>
       </c>
       <c r="T2">
-        <v>63.962722564712983</v>
+        <v>63.962722564390106</v>
       </c>
       <c r="U2">
-        <v>57.726680856363188</v>
+        <v>57.726680856537598</v>
       </c>
       <c r="V2">
-        <v>49.197224934717504</v>
+        <v>49.197224934452947</v>
       </c>
       <c r="W2">
-        <v>42.797405799910365</v>
+        <v>42.797405800782784</v>
       </c>
       <c r="X2">
-        <v>56.126596650970654</v>
+        <v>56.126596651307679</v>
       </c>
       <c r="Y2">
-        <v>59.142584841232512</v>
+        <v>59.142584841185368</v>
       </c>
       <c r="Z2">
-        <v>59.125297213015187</v>
+        <v>59.125297212903625</v>
       </c>
       <c r="AA2">
-        <v>66.185633611749751</v>
+        <v>66.185633616090144</v>
       </c>
       <c r="AB2">
-        <v>68.523145966188935</v>
+        <v>68.523145966221421</v>
       </c>
       <c r="AC2">
-        <v>49.339153680886156</v>
+        <v>49.339153680876748</v>
       </c>
       <c r="AD2">
-        <v>69.235565316312488</v>
+        <v>69.235565316252035</v>
       </c>
       <c r="AE2">
-        <v>49.088470807221171</v>
+        <v>49.088470806991751</v>
       </c>
       <c r="AF2">
-        <v>57.745407546477708</v>
+        <v>57.745407546031643</v>
       </c>
       <c r="AG2">
-        <v>48.929647805951163</v>
+        <v>48.929647807083015</v>
       </c>
       <c r="AH2">
-        <v>59.663806478947251</v>
+        <v>59.663806479414745</v>
       </c>
       <c r="AI2">
-        <v>71.635145346229763</v>
+        <v>71.635145346094674</v>
       </c>
       <c r="AJ2">
-        <v>54.832188977856539</v>
+        <v>54.832188978085455</v>
       </c>
       <c r="AK2">
-        <v>56.825567890593646</v>
+        <v>56.825567890488031</v>
       </c>
       <c r="AL2">
-        <v>68.337448856532092</v>
+        <v>68.33744885673454</v>
       </c>
       <c r="AM2">
-        <v>59.700097501322631</v>
+        <v>59.700097501423443</v>
       </c>
       <c r="AN2">
-        <v>48.799647764590176</v>
+        <v>48.79964776451186</v>
       </c>
       <c r="AO2">
-        <v>64.878157594589396</v>
+        <v>64.878157595001255</v>
       </c>
       <c r="AP2">
-        <v>65.351423773337686</v>
+        <v>65.351423772998572</v>
       </c>
       <c r="AQ2">
-        <v>54.878858733528453</v>
+        <v>54.878858733544178</v>
       </c>
       <c r="AR2">
-        <v>80.720770648721725</v>
+        <v>80.720770654009243</v>
       </c>
       <c r="AS2">
-        <v>64.727007685073474</v>
+        <v>64.727007688207834</v>
       </c>
       <c r="AT2">
-        <v>63.958017289001148</v>
+        <v>63.958017288943921</v>
       </c>
       <c r="AU2">
-        <v>57.230116684505376</v>
+        <v>57.230116684686251</v>
       </c>
       <c r="AV2">
-        <v>47.863610047412394</v>
+        <v>47.8636100477094</v>
       </c>
       <c r="AW2">
-        <v>53.954760830052692</v>
+        <v>53.954760830235642</v>
       </c>
       <c r="AX2">
-        <v>62.608605453966561</v>
+        <v>62.608605453913697</v>
       </c>
       <c r="AY2">
-        <v>65.417065136129224</v>
+        <v>65.417065136059989</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>64.995713257857602</v>
+        <v>64.99571325778038</v>
       </c>
       <c r="C3">
-        <v>57.836091836245863</v>
+        <v>57.836091836223964</v>
       </c>
       <c r="D3">
-        <v>56.726130295821321</v>
+        <v>56.726130296053128</v>
       </c>
       <c r="E3">
-        <v>59.300622010685743</v>
+        <v>59.300622042272167</v>
       </c>
       <c r="F3">
-        <v>42.204209152961155</v>
+        <v>42.204209153070174</v>
       </c>
       <c r="G3">
-        <v>58.704653446732991</v>
+        <v>58.704653447029763</v>
       </c>
       <c r="H3">
-        <v>43.009640399614625</v>
+        <v>43.009640399581642</v>
       </c>
       <c r="I3">
-        <v>62.034294347313356</v>
+        <v>62.034294347297141</v>
       </c>
       <c r="J3">
-        <v>69.714714286342172</v>
+        <v>69.71471428645637</v>
       </c>
       <c r="K3">
-        <v>65.278486211300105</v>
+        <v>65.278486211453298</v>
       </c>
       <c r="L3">
-        <v>56.855484917565498</v>
+        <v>56.855484917530958</v>
       </c>
       <c r="M3">
-        <v>67.711771543925124</v>
+        <v>67.711603823833883</v>
       </c>
       <c r="N3">
-        <v>61.485477159061375</v>
+        <v>61.48547715904084</v>
       </c>
       <c r="O3">
-        <v>38.724136541658623</v>
+        <v>38.724136541862876</v>
       </c>
       <c r="P3">
-        <v>60.107650705927938</v>
+        <v>60.107650706020294</v>
       </c>
       <c r="Q3">
-        <v>54.92827214078811</v>
+        <v>54.928272140723863</v>
       </c>
       <c r="R3">
-        <v>44.255729989752197</v>
+        <v>44.255729989544079</v>
       </c>
       <c r="S3">
-        <v>74.293053615077113</v>
+        <v>74.293053615033187</v>
       </c>
       <c r="T3">
-        <v>63.848066330502903</v>
+        <v>63.848066330691836</v>
       </c>
       <c r="U3">
-        <v>62.147010337189585</v>
+        <v>62.147010337251828</v>
       </c>
       <c r="V3">
-        <v>56.274803375710668</v>
+        <v>56.27480337538438</v>
       </c>
       <c r="W3">
-        <v>49.121652248597883</v>
+        <v>49.121652249395986</v>
       </c>
       <c r="X3">
-        <v>50.339097247897136</v>
+        <v>50.339097247894024</v>
       </c>
       <c r="Y3">
-        <v>67.574907687029295</v>
+        <v>67.574907686962874</v>
       </c>
       <c r="Z3">
-        <v>64.218905561801947</v>
+        <v>64.218905561985082</v>
       </c>
       <c r="AA3">
-        <v>65.885320544345348</v>
+        <v>65.885320544496324</v>
       </c>
       <c r="AB3">
-        <v>63.580506522049006</v>
+        <v>63.580506522130221</v>
       </c>
       <c r="AC3">
-        <v>56.041799230141052</v>
+        <v>56.041799230458977</v>
       </c>
       <c r="AD3">
-        <v>70.513632070041936</v>
+        <v>70.513632070166921</v>
       </c>
       <c r="AE3">
-        <v>50.134802639781107</v>
+        <v>50.134802639589608</v>
       </c>
       <c r="AF3">
-        <v>58.869505448068736</v>
+        <v>58.869505448178991</v>
       </c>
       <c r="AG3">
-        <v>51.588549193878329</v>
+        <v>51.588549193948126</v>
       </c>
       <c r="AH3">
-        <v>67.069192889323347</v>
+        <v>67.06919288995546</v>
       </c>
       <c r="AI3">
-        <v>88.197898998190865</v>
+        <v>88.197898999556912</v>
       </c>
       <c r="AJ3">
-        <v>55.924347514821065</v>
+        <v>55.924347515002907</v>
       </c>
       <c r="AK3">
-        <v>62.360819406887352</v>
+        <v>62.360819406947826</v>
       </c>
       <c r="AL3">
-        <v>66.080869344774626</v>
+        <v>66.080869344722842</v>
       </c>
       <c r="AM3">
-        <v>64.439821372521848</v>
+        <v>64.43982137233499</v>
       </c>
       <c r="AN3">
-        <v>43.343430727243003</v>
+        <v>43.343430727387585</v>
       </c>
       <c r="AO3">
-        <v>63.149069648867538</v>
+        <v>63.149069647905421</v>
       </c>
       <c r="AP3">
-        <v>53.758892620578685</v>
+        <v>53.758892621731675</v>
       </c>
       <c r="AQ3">
-        <v>51.598221021196558</v>
+        <v>51.598221022603312</v>
       </c>
       <c r="AR3">
-        <v>84.091406192903747</v>
+        <v>84.091406193965781</v>
       </c>
       <c r="AS3">
-        <v>59.35580663881953</v>
+        <v>59.355806638579224</v>
       </c>
       <c r="AT3">
-        <v>62.891531275583112</v>
+        <v>62.891531275980398</v>
       </c>
       <c r="AU3">
-        <v>55.823097694492219</v>
+        <v>55.823097695238026</v>
       </c>
       <c r="AV3">
-        <v>47.412312320975019</v>
+        <v>47.412312321657311</v>
       </c>
       <c r="AW3">
-        <v>51.967805464168734</v>
+        <v>51.967805463846716</v>
       </c>
       <c r="AX3">
-        <v>59.905601936607923</v>
+        <v>59.905601936797346</v>
       </c>
       <c r="AY3">
-        <v>71.626419719230427</v>
+        <v>71.626419719178713</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>63.215099736609872</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>67.203567915227353</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>52.000728589638427</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>68.488049639975202</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>42.865804025703618</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>56.151478433544767</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>48.315458922335736</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>60.841778278904748</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>66.654587014121361</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>54.175691502932466</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>55.027247848521817</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>65.907559826486761</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>62.742833143034716</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>45.976771617899388</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>61.259560156331794</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>61.309997011440316</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>53.906554568370282</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>86.118115264238199</v>
+        <v>80.236070249607479</v>
       </c>
       <c r="T2">
         <v>63.962722564390106</v>
@@ -573,7 +462,7 @@
         <v>57.726680856537598</v>
       </c>
       <c r="V2">
-        <v>49.197224934452947</v>
+        <v>49.608963237370958</v>
       </c>
       <c r="W2">
         <v>42.797405800782784</v>
@@ -588,55 +477,55 @@
         <v>59.125297212903625</v>
       </c>
       <c r="AA2">
-        <v>66.185633616090144</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>68.523145966221421</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>49.339153680876748</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>69.235565316252035</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>49.088470806991751</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>57.745407546031643</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>48.929647807083015</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>59.663806479414745</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>71.635145346094674</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>54.832188978085455</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>56.825567890488031</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>68.33744885673454</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>59.700097501423443</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>48.79964776451186</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>64.878157595001255</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>65.351423772998572</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>54.878858733544178</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>80.720770654009243</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>64.99571325778038</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>57.836091836223964</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>56.726130296053128</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>59.300622042272167</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>42.204209153070174</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>58.704653447029763</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>43.009640399581642</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>62.034294347297141</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>69.71471428645637</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>65.278486211453298</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>56.855484917530958</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>67.711603823833883</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>61.48547715904084</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>38.724136541862876</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>60.107650706020294</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>54.928272140723863</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>44.255729989544079</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>74.293053615033187</v>
@@ -743,55 +629,55 @@
         <v>64.218905561985082</v>
       </c>
       <c r="AA3">
-        <v>65.885320544496324</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>63.580506522130221</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>56.041799230458977</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>70.513632070166921</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>50.134802639589608</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>58.869505448178991</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>51.588549193948126</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>67.06919288995546</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>88.197898999556912</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>55.924347515002907</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>62.360819406947826</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>66.080869344722842</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>64.43982137233499</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>43.343430727387585</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>63.149069647905421</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>53.758892621731675</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>51.598221022603312</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>84.091406193965781</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.215099736670844</v>
+        <v>45.976771617899388</v>
       </c>
       <c r="C2">
-        <v>63.837850760922827</v>
+        <v>53.906554568370282</v>
       </c>
       <c r="D2">
-        <v>52.000728589688386</v>
+        <v>48.79964776451186</v>
       </c>
       <c r="E2">
-        <v>68.48804964016486</v>
+        <v>54.878858733544178</v>
       </c>
       <c r="F2">
         <v>42.865804026347618</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>64.995713257857602</v>
+        <v>42.602687163599157</v>
       </c>
       <c r="C3">
-        <v>57.836091836245863</v>
+        <v>44.255729989544079</v>
       </c>
       <c r="D3">
-        <v>56.726130295821321</v>
+        <v>43.767603607131896</v>
       </c>
       <c r="E3">
-        <v>59.300622010685743</v>
+        <v>54.559152646880094</v>
       </c>
       <c r="F3">
         <v>42.204209152961155</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.215099736670844</v>
+        <v>60.961853333015583</v>
       </c>
       <c r="C2">
-        <v>63.837850760922827</v>
+        <v>45.976771617899388</v>
       </c>
       <c r="D2">
-        <v>52.000728589688386</v>
+        <v>59.700097501423443</v>
       </c>
       <c r="E2">
-        <v>68.48804964016486</v>
+        <v>48.79964776451186</v>
       </c>
       <c r="F2">
         <v>42.865804026347618</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>64.995713257857602</v>
+        <v>61.48547715904084</v>
       </c>
       <c r="C3">
-        <v>57.836091836245863</v>
+        <v>42.602687163599157</v>
       </c>
       <c r="D3">
-        <v>56.726130295821321</v>
+        <v>64.43982137233499</v>
       </c>
       <c r="E3">
-        <v>64.210152258326687</v>
+        <v>43.767603607131896</v>
       </c>
       <c r="F3">
         <v>42.204209152961155</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_zero.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>63.215099736609872</v>
+      </c>
+      <c r="C2">
+        <v>63.837850760876726</v>
+      </c>
+      <c r="D2">
+        <v>52.000728589638427</v>
+      </c>
+      <c r="E2">
+        <v>68.488049639975202</v>
+      </c>
+      <c r="F2">
+        <v>42.865804025703618</v>
+      </c>
+      <c r="G2">
+        <v>58.090479475793224</v>
+      </c>
+      <c r="H2">
+        <v>48.315458922335736</v>
+      </c>
+      <c r="I2">
+        <v>62.67444432433723</v>
+      </c>
+      <c r="J2">
+        <v>66.654587014121361</v>
+      </c>
+      <c r="K2">
+        <v>54.175691502932466</v>
+      </c>
+      <c r="L2">
+        <v>53.596892053855477</v>
+      </c>
+      <c r="M2">
+        <v>71.299369562121143</v>
+      </c>
+      <c r="N2">
         <v>60.961853333015583</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>45.976771617899388</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>61.933219201388731</v>
+      </c>
+      <c r="Q2">
+        <v>61.309997011440316</v>
+      </c>
+      <c r="R2">
+        <v>53.906554568370282</v>
+      </c>
+      <c r="T2">
+        <v>61.528383997965676</v>
+      </c>
+      <c r="U2">
+        <v>57.726680856537598</v>
+      </c>
+      <c r="V2">
+        <v>51.838309916486708</v>
+      </c>
+      <c r="W2">
+        <v>42.797405800782784</v>
+      </c>
+      <c r="X2">
+        <v>56.126596651307679</v>
+      </c>
+      <c r="Y2">
+        <v>59.142584841185368</v>
+      </c>
+      <c r="Z2">
+        <v>59.125297212903625</v>
+      </c>
+      <c r="AA2">
+        <v>66.185633616090144</v>
+      </c>
+      <c r="AB2">
+        <v>68.523145966221421</v>
+      </c>
+      <c r="AC2">
+        <v>49.339153680876748</v>
+      </c>
+      <c r="AD2">
+        <v>69.235565316252035</v>
+      </c>
+      <c r="AE2">
+        <v>49.088470806991751</v>
+      </c>
+      <c r="AF2">
+        <v>57.745407546031643</v>
+      </c>
+      <c r="AG2">
+        <v>48.929647807083015</v>
+      </c>
+      <c r="AH2">
+        <v>59.663806479414745</v>
+      </c>
+      <c r="AI2">
+        <v>71.635145346094674</v>
+      </c>
+      <c r="AJ2">
+        <v>54.832188978085455</v>
+      </c>
+      <c r="AK2">
+        <v>56.825567890488031</v>
+      </c>
+      <c r="AL2">
+        <v>68.33744885673454</v>
+      </c>
+      <c r="AM2">
         <v>59.700097501423443</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>48.79964776451186</v>
       </c>
-      <c r="F2">
-        <v>42.865804026347618</v>
-      </c>
-      <c r="G2">
-        <v>58.090479475972792</v>
-      </c>
-      <c r="H2">
-        <v>48.31545892228263</v>
-      </c>
-      <c r="I2">
-        <v>62.674444322936239</v>
-      </c>
-      <c r="J2">
-        <v>66.654587012706259</v>
-      </c>
-      <c r="K2">
-        <v>54.175691502904904</v>
-      </c>
-      <c r="L2">
-        <v>53.596892053873475</v>
-      </c>
-      <c r="M2">
-        <v>71.299369561818565</v>
-      </c>
-      <c r="N2">
-        <v>60.961853332109996</v>
-      </c>
-      <c r="O2">
-        <v>45.976771617904149</v>
-      </c>
-      <c r="P2">
-        <v>61.933219201682441</v>
-      </c>
-      <c r="Q2">
-        <v>61.309997011393307</v>
-      </c>
-      <c r="R2">
-        <v>53.906554567682818</v>
-      </c>
-      <c r="T2">
-        <v>61.528383997700871</v>
-      </c>
-      <c r="U2">
-        <v>57.726680856363188</v>
-      </c>
-      <c r="V2">
-        <v>51.838309916472078</v>
-      </c>
-      <c r="W2">
-        <v>42.797405799910365</v>
-      </c>
-      <c r="X2">
-        <v>56.126596650970654</v>
-      </c>
-      <c r="Y2">
-        <v>59.142584841232512</v>
-      </c>
-      <c r="Z2">
-        <v>59.125297213015187</v>
-      </c>
-      <c r="AA2">
-        <v>66.185633611749751</v>
-      </c>
-      <c r="AB2">
-        <v>68.523145966188935</v>
-      </c>
-      <c r="AC2">
-        <v>49.339153680886156</v>
-      </c>
-      <c r="AD2">
-        <v>69.235565316312488</v>
-      </c>
-      <c r="AE2">
-        <v>49.088470807221171</v>
-      </c>
-      <c r="AF2">
-        <v>57.745407546477708</v>
-      </c>
-      <c r="AG2">
-        <v>48.929647805951163</v>
-      </c>
-      <c r="AH2">
-        <v>59.663806478947251</v>
-      </c>
-      <c r="AI2">
-        <v>71.635145346229763</v>
-      </c>
-      <c r="AJ2">
-        <v>54.832188977856539</v>
-      </c>
-      <c r="AK2">
-        <v>56.825567890593646</v>
-      </c>
-      <c r="AL2">
-        <v>68.337448856532092</v>
-      </c>
-      <c r="AM2">
-        <v>59.700097501322631</v>
-      </c>
-      <c r="AN2">
-        <v>48.799647764590176</v>
-      </c>
       <c r="AO2">
-        <v>64.878157594589396</v>
+        <v>64.878157595001255</v>
       </c>
       <c r="AP2">
-        <v>67.500804214940828</v>
+        <v>67.500804214693474</v>
       </c>
       <c r="AQ2">
-        <v>54.878858733528453</v>
+        <v>54.878858733544178</v>
       </c>
       <c r="AR2">
-        <v>80.720770648721725</v>
+        <v>80.720770654009243</v>
       </c>
       <c r="AS2">
-        <v>64.727007685073474</v>
+        <v>64.727007688207834</v>
       </c>
       <c r="AT2">
-        <v>63.958017289001148</v>
+        <v>63.958017288943921</v>
       </c>
       <c r="AU2">
-        <v>51.992906246380599</v>
+        <v>51.992906265171634</v>
       </c>
       <c r="AV2">
-        <v>47.863610047412394</v>
+        <v>47.8636100477094</v>
       </c>
       <c r="AW2">
-        <v>53.954760830052692</v>
+        <v>53.954760830235642</v>
       </c>
       <c r="AX2">
-        <v>62.608605453966561</v>
+        <v>62.608605453913697</v>
       </c>
       <c r="AY2">
-        <v>65.417065136129224</v>
+        <v>65.417065136059989</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>64.99571325778038</v>
+      </c>
+      <c r="C3">
+        <v>57.836091836223964</v>
+      </c>
+      <c r="D3">
+        <v>56.726130296053128</v>
+      </c>
+      <c r="E3">
+        <v>64.210152303002985</v>
+      </c>
+      <c r="F3">
+        <v>42.204209153070174</v>
+      </c>
+      <c r="G3">
+        <v>58.704653447029763</v>
+      </c>
+      <c r="H3">
+        <v>43.009640399581642</v>
+      </c>
+      <c r="I3">
+        <v>62.034294347297141</v>
+      </c>
+      <c r="J3">
+        <v>69.71471428645637</v>
+      </c>
+      <c r="K3">
+        <v>63.423329585786512</v>
+      </c>
+      <c r="L3">
+        <v>56.855484917530958</v>
+      </c>
+      <c r="M3">
+        <v>61.967985292327114</v>
+      </c>
+      <c r="N3">
         <v>61.48547715904084</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>42.602687163599157</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>60.107650706020294</v>
+      </c>
+      <c r="Q3">
+        <v>54.928272140723863</v>
+      </c>
+      <c r="R3">
+        <v>44.255729989544079</v>
+      </c>
+      <c r="S3">
+        <v>74.293053615033187</v>
+      </c>
+      <c r="T3">
+        <v>63.848066330691836</v>
+      </c>
+      <c r="U3">
+        <v>62.147010337251828</v>
+      </c>
+      <c r="V3">
+        <v>58.200004556019579</v>
+      </c>
+      <c r="W3">
+        <v>49.121652249395986</v>
+      </c>
+      <c r="X3">
+        <v>50.339097247894024</v>
+      </c>
+      <c r="Y3">
+        <v>67.574907686962874</v>
+      </c>
+      <c r="Z3">
+        <v>64.218905561985082</v>
+      </c>
+      <c r="AA3">
+        <v>65.885320544496324</v>
+      </c>
+      <c r="AB3">
+        <v>63.580506522130221</v>
+      </c>
+      <c r="AC3">
+        <v>56.041799230458977</v>
+      </c>
+      <c r="AD3">
+        <v>70.513632070166921</v>
+      </c>
+      <c r="AE3">
+        <v>50.134802639589608</v>
+      </c>
+      <c r="AF3">
+        <v>58.869505448178991</v>
+      </c>
+      <c r="AG3">
+        <v>51.588549187527178</v>
+      </c>
+      <c r="AH3">
+        <v>67.06919288995546</v>
+      </c>
+      <c r="AI3">
+        <v>66.121607610534198</v>
+      </c>
+      <c r="AJ3">
+        <v>55.924347515002907</v>
+      </c>
+      <c r="AK3">
+        <v>62.360819406947826</v>
+      </c>
+      <c r="AL3">
+        <v>66.080869344722842</v>
+      </c>
+      <c r="AM3">
         <v>64.43982137233499</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>43.767603607131896</v>
       </c>
-      <c r="F3">
-        <v>42.204209152961155</v>
-      </c>
-      <c r="G3">
-        <v>58.704653446732991</v>
-      </c>
-      <c r="H3">
-        <v>43.009640399614625</v>
-      </c>
-      <c r="I3">
-        <v>62.034294347313356</v>
-      </c>
-      <c r="J3">
-        <v>69.714714286342172</v>
-      </c>
-      <c r="K3">
-        <v>63.423329585552125</v>
-      </c>
-      <c r="L3">
-        <v>56.855484917565498</v>
-      </c>
-      <c r="M3">
-        <v>61.967828342251153</v>
-      </c>
-      <c r="N3">
-        <v>61.485477159061375</v>
-      </c>
-      <c r="O3">
-        <v>42.602687162848859</v>
-      </c>
-      <c r="P3">
-        <v>60.107650705927938</v>
-      </c>
-      <c r="Q3">
-        <v>54.92827214078811</v>
-      </c>
-      <c r="R3">
-        <v>44.255729989752197</v>
-      </c>
-      <c r="S3">
-        <v>74.293053615077113</v>
-      </c>
-      <c r="T3">
-        <v>63.848066330502903</v>
-      </c>
-      <c r="U3">
-        <v>62.147010337189585</v>
-      </c>
-      <c r="V3">
-        <v>58.20000455770527</v>
-      </c>
-      <c r="W3">
-        <v>49.121652248597883</v>
-      </c>
-      <c r="X3">
-        <v>50.339097247897136</v>
-      </c>
-      <c r="Y3">
-        <v>67.574907687029295</v>
-      </c>
-      <c r="Z3">
-        <v>64.218905561801947</v>
-      </c>
-      <c r="AA3">
-        <v>65.885320544345348</v>
-      </c>
-      <c r="AB3">
-        <v>63.580506522049006</v>
-      </c>
-      <c r="AC3">
-        <v>56.041799230141052</v>
-      </c>
-      <c r="AD3">
-        <v>70.513632070041936</v>
-      </c>
-      <c r="AE3">
-        <v>50.134802639781107</v>
-      </c>
-      <c r="AF3">
-        <v>58.869505448068736</v>
-      </c>
-      <c r="AG3">
-        <v>51.588549187457382</v>
-      </c>
-      <c r="AH3">
-        <v>67.069192889323347</v>
-      </c>
-      <c r="AI3">
-        <v>66.121607611136852</v>
-      </c>
-      <c r="AJ3">
-        <v>55.924347514821065</v>
-      </c>
-      <c r="AK3">
-        <v>62.360819406887352</v>
-      </c>
-      <c r="AL3">
-        <v>66.080869344774626</v>
-      </c>
-      <c r="AM3">
-        <v>64.439821372521848</v>
-      </c>
-      <c r="AN3">
-        <v>43.767603606983243</v>
-      </c>
       <c r="AO3">
-        <v>63.149069648867538</v>
+        <v>63.149069647905421</v>
       </c>
       <c r="AP3">
-        <v>53.758892620578685</v>
+        <v>53.758892621731675</v>
       </c>
       <c r="AQ3">
-        <v>54.559152646934507</v>
+        <v>54.559152646880094</v>
       </c>
       <c r="AR3">
-        <v>84.091406192903747</v>
+        <v>84.091406193965781</v>
       </c>
       <c r="AS3">
-        <v>59.35580663881953</v>
+        <v>59.355806638579224</v>
       </c>
       <c r="AT3">
-        <v>62.891531275583112</v>
+        <v>62.891531275980398</v>
       </c>
       <c r="AU3">
-        <v>56.308755735889065</v>
+        <v>56.308755737078172</v>
       </c>
       <c r="AV3">
-        <v>47.412312320975019</v>
+        <v>47.412312321657311</v>
       </c>
       <c r="AW3">
-        <v>51.967805464168734</v>
+        <v>51.967805463846716</v>
       </c>
       <c r="AX3">
-        <v>59.905601936607923</v>
+        <v>59.905601936797346</v>
       </c>
       <c r="AY3">
-        <v>71.626419719230427</v>
+        <v>71.626419719178713</v>
       </c>
     </row>
   </sheetData>
